--- a/dane_mantica/Liceum ogólnokształcące_2023_2024_Uzupełniający_Nauczyciele.xlsx
+++ b/dane_mantica/Liceum ogólnokształcące_2023_2024_Uzupełniający_Nauczyciele.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WojciechBalcerzak\Desktop\mantica\dane_mantica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D9FDE-1F60-4A5D-860E-FAA31AF2BFBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C6F2A2-DCFD-4F8B-AED3-A7342D54E0CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" tabRatio="752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" tabRatio="752" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 LO U " sheetId="44" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="597">
   <si>
     <t>L.p.</t>
   </si>
@@ -1575,12 +1575,6 @@
     <t>wekwejtm@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Klasa 4 Liceum Ogólnokształcącego im. Komisji Edukacji Narodowej </t>
-  </si>
-  <si>
-    <t>uzupełniający plan nauczania - 4 LO U</t>
-  </si>
-  <si>
     <t>Ancel</t>
   </si>
   <si>
@@ -1825,6 +1819,9 @@
   </si>
   <si>
     <t>AX4300035</t>
+  </si>
+  <si>
+    <t>ET 6893029</t>
   </si>
 </sst>
 </file>
@@ -1832,9 +1829,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="00000000000"/>
+    <numFmt numFmtId="164" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1848,14 +1845,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <b/>
@@ -1876,13 +1865,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1942,7 +1924,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1958,12 +1940,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1992,7 +1968,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2026,46 +2002,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -2088,30 +2024,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2203,135 +2115,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -2654,7 +2546,7 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -2666,37 +2558,37 @@
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="74" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="66" t="s">
-        <v>586</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>587</v>
+      <c r="G1" s="65" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
+      <c r="A2" s="33">
         <v>45198</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="45">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2714,15 +2606,15 @@
       <c r="G2" s="8">
         <v>2394</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="67">
         <v>9293003190</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="33">
         <v>45188</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2740,15 +2632,15 @@
       <c r="G3" s="8">
         <v>5433</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="67">
         <v>9212408837</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
+      <c r="A4" s="33">
         <v>45183</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2766,15 +2658,15 @@
       <c r="G4" s="8">
         <v>5429</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="67">
         <v>9282613522</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="33">
         <v>45156</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2792,15 +2684,15 @@
       <c r="G5" s="8">
         <v>4053</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="67">
         <v>8212103131</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>45197</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2818,15 +2710,15 @@
       <c r="G6" s="8">
         <v>5437</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="67">
         <v>9262010655</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
+      <c r="A7" s="33">
         <v>45128</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2838,21 +2730,21 @@
       <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="8">
         <v>5404</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="67">
         <v>8260611844</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
+      <c r="A8" s="33">
         <v>45176</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2870,15 +2762,15 @@
       <c r="G8" s="8">
         <v>5420</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="67">
         <v>8310302733</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>45197</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2890,21 +2782,21 @@
       <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="47" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="8">
         <v>2397</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="67">
         <v>9322805386</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>45181</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2922,15 +2814,15 @@
       <c r="G10" s="8">
         <v>5422</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="67">
         <v>8272201934</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>45156</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2939,24 +2831,24 @@
       <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="48" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="8">
         <v>4055</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="67">
         <v>8260600758</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>45183</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2974,15 +2866,15 @@
       <c r="G12" s="8">
         <v>5426</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="67">
         <v>7260609903</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+      <c r="A13" s="33">
         <v>45183</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -3000,15 +2892,15 @@
       <c r="G13" s="8">
         <v>5428</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="67">
         <v>9282710687</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+      <c r="A14" s="33">
         <v>45147</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -3024,15 +2916,15 @@
       <c r="G14" s="8">
         <v>5410</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="67">
         <v>9252912192</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+      <c r="A15" s="33">
         <v>45189</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3042,18 +2934,18 @@
         <v>52</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="49" t="s">
         <v>53</v>
       </c>
       <c r="G15" s="8">
         <v>4000</v>
       </c>
-      <c r="H15" s="75" t="s">
-        <v>588</v>
+      <c r="H15" s="67" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -3065,11 +2957,11 @@
       <c r="E16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="75">
+      <c r="H16" s="67">
         <v>7221810517</v>
       </c>
       <c r="I16" t="s">
@@ -3077,10 +2969,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>45161</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -3098,8 +2990,8 @@
       <c r="G17" s="8">
         <v>4056</v>
       </c>
-      <c r="H17" s="75" t="s">
-        <v>589</v>
+      <c r="H17" s="67" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -3121,15 +3013,15 @@
       <c r="G18" s="8">
         <v>4008</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="67">
         <v>9222513000</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>45147</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="45">
         <v>20</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -3147,15 +3039,15 @@
       <c r="G19" s="8">
         <v>5409</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="67">
         <v>857104853</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>45183</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="45">
         <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -3169,15 +3061,15 @@
         <v>22</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="75">
+      <c r="H20" s="67">
         <v>8251809162</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
+      <c r="A21" s="33">
         <v>45212</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="45">
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -3195,15 +3087,15 @@
       <c r="G21" s="8">
         <v>5441</v>
       </c>
-      <c r="H21" s="75">
+      <c r="H21" s="67">
         <v>9281611156</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="34">
+      <c r="A22" s="33">
         <v>45170</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="45">
         <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -3221,15 +3113,15 @@
       <c r="G22" s="8">
         <v>5417</v>
       </c>
-      <c r="H22" s="75">
+      <c r="H22" s="67">
         <v>9250512233</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
+      <c r="A23" s="33">
         <v>45196</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="45">
         <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -3241,21 +3133,21 @@
       <c r="E23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="47" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="8">
         <v>5436</v>
       </c>
-      <c r="H23" s="75">
+      <c r="H23" s="67">
         <v>10260912658</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="34">
+      <c r="A24" s="33">
         <v>45141</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="45">
         <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -3271,15 +3163,15 @@
       <c r="G24" s="8">
         <v>5408</v>
       </c>
-      <c r="H24" s="75">
+      <c r="H24" s="67">
         <v>8240904270</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
+      <c r="A25" s="33">
         <v>45161</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="45">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -3297,15 +3189,15 @@
       <c r="G25" s="8">
         <v>2657</v>
       </c>
-      <c r="H25" s="75">
+      <c r="H25" s="67">
         <v>8320411597</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>45183</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="45">
         <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -3323,15 +3215,15 @@
       <c r="G26" s="8">
         <v>5431</v>
       </c>
-      <c r="H26" s="75">
+      <c r="H26" s="67">
         <v>8233111522</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>45212</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="45">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -3349,7 +3241,7 @@
       <c r="G27" s="8">
         <v>4013</v>
       </c>
-      <c r="H27" s="75">
+      <c r="H27" s="67">
         <v>9301308345</v>
       </c>
     </row>
@@ -3366,19 +3258,19 @@
       <c r="E28" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="51" t="s">
         <v>100</v>
       </c>
       <c r="G28" s="8">
         <v>2612</v>
       </c>
-      <c r="H28" s="75"/>
+      <c r="H28" s="67"/>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+      <c r="A29" s="33">
         <v>45174</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="45">
         <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -3396,15 +3288,15 @@
       <c r="G29" s="8">
         <v>4014</v>
       </c>
-      <c r="H29" s="75">
+      <c r="H29" s="67">
         <v>8220209021</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="34">
+      <c r="A30" s="33">
         <v>45145</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="45">
         <v>31</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -3420,15 +3312,15 @@
       <c r="G30" s="8">
         <v>5408</v>
       </c>
-      <c r="H30" s="75">
+      <c r="H30" s="67">
         <v>9252211666</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
+      <c r="A31" s="33">
         <v>45216</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="45">
         <v>32</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -3446,15 +3338,15 @@
       <c r="G31" s="8">
         <v>5443</v>
       </c>
-      <c r="H31" s="75">
+      <c r="H31" s="67">
         <v>9322900845</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+      <c r="A32" s="33">
         <v>45208</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="45">
         <v>33</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -3470,15 +3362,15 @@
         <v>79</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="75">
+      <c r="H32" s="67">
         <v>8282511588</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
+      <c r="A33" s="33">
         <v>45215</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="45">
         <v>34</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -3496,7 +3388,7 @@
       <c r="G33" s="8">
         <v>5442</v>
       </c>
-      <c r="H33" s="75">
+      <c r="H33" s="67">
         <v>8250812589</v>
       </c>
     </row>
@@ -3513,19 +3405,19 @@
       <c r="E34" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="50" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="75">
+      <c r="H34" s="67">
         <v>7290411662</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="34">
+      <c r="A35" s="33">
         <v>45183</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="45">
         <v>36</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -3537,19 +3429,19 @@
       <c r="E35" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="47" t="s">
         <v>83</v>
       </c>
       <c r="G35" s="8"/>
-      <c r="H35" s="75">
+      <c r="H35" s="67">
         <v>8291308511</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>45183</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="45">
         <v>37</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -3559,21 +3451,21 @@
         <v>39</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="47" t="s">
         <v>83</v>
       </c>
       <c r="G36" s="8">
         <v>5424</v>
       </c>
-      <c r="H36" s="75">
+      <c r="H36" s="67">
         <v>9263000262</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="34">
+      <c r="A37" s="33">
         <v>45217</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="45">
         <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -3591,15 +3483,15 @@
       <c r="G37" s="8">
         <v>4027</v>
       </c>
-      <c r="H37" s="75">
+      <c r="H37" s="67">
         <v>8311709621</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>45176</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="45">
         <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -3617,12 +3509,12 @@
       <c r="G38" s="8">
         <v>5421</v>
       </c>
-      <c r="H38" s="75">
+      <c r="H38" s="67">
         <v>9221208958</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="46">
+      <c r="B39" s="45">
         <v>40</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -3640,15 +3532,15 @@
       <c r="G39" s="8">
         <v>2705</v>
       </c>
-      <c r="H39" s="75">
+      <c r="H39" s="67">
         <v>9282902130</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
+      <c r="A40" s="33">
         <v>45138</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="45">
         <v>41</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -3666,15 +3558,15 @@
       <c r="G40" s="8">
         <v>5406</v>
       </c>
-      <c r="H40" s="75">
+      <c r="H40" s="67">
         <v>9241308919</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="34">
+      <c r="A41" s="33">
         <v>45183</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="45">
         <v>42</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -3690,15 +3582,15 @@
         <v>66</v>
       </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="75">
+      <c r="H41" s="67">
         <v>9321909814</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="34">
+      <c r="A42" s="33">
         <v>45201</v>
       </c>
-      <c r="B42" s="46">
+      <c r="B42" s="45">
         <v>43</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -3707,21 +3599,21 @@
       <c r="D42" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="47" t="s">
         <v>83</v>
       </c>
       <c r="G42" s="8">
         <v>2627</v>
       </c>
-      <c r="H42" s="75">
+      <c r="H42" s="67">
         <v>9270114710</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B43" s="46">
+      <c r="B43" s="45">
         <v>44</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -3739,15 +3631,15 @@
       <c r="G43" s="8">
         <v>5423</v>
       </c>
-      <c r="H43" s="75">
+      <c r="H43" s="67">
         <v>9292707835</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="34">
+      <c r="A44" s="33">
         <v>45201</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="45">
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -3765,15 +3657,15 @@
       <c r="G44" s="8">
         <v>5439</v>
       </c>
-      <c r="H44" s="75">
+      <c r="H44" s="67">
         <v>8251912394</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="34">
+      <c r="A45" s="33">
         <v>45198</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="45">
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -3791,13 +3683,13 @@
       <c r="G45" s="8">
         <v>4034</v>
       </c>
-      <c r="H45" s="75"/>
+      <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
+      <c r="A46" s="33">
         <v>45183</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="45">
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -3815,7 +3707,7 @@
       <c r="G46" s="8">
         <v>2678</v>
       </c>
-      <c r="H46" s="75">
+      <c r="H46" s="67">
         <v>8291909408</v>
       </c>
     </row>
@@ -3832,21 +3724,21 @@
       <c r="E47" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="47" t="s">
         <v>83</v>
       </c>
       <c r="G47" s="8">
         <v>5405</v>
       </c>
-      <c r="H47" s="75">
+      <c r="H47" s="67">
         <v>9300210634</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="34">
+      <c r="A48" s="33">
         <v>45131</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="45">
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -3860,15 +3752,15 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="75">
+      <c r="H48" s="67">
         <v>8280910075</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="34">
+      <c r="A49" s="33">
         <v>45189</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="45">
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -3886,15 +3778,15 @@
       <c r="G49" s="8">
         <v>5434</v>
       </c>
-      <c r="H49" s="75">
+      <c r="H49" s="67">
         <v>9251214950</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="34">
+      <c r="A50" s="33">
         <v>45183</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="45">
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -3906,21 +3798,21 @@
       <c r="E50" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="47" t="s">
         <v>83</v>
       </c>
       <c r="G50" s="8">
         <v>5407</v>
       </c>
-      <c r="H50" s="75">
+      <c r="H50" s="67">
         <v>9221204176</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="34">
+      <c r="A51" s="33">
         <v>45138</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="45">
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -3936,15 +3828,15 @@
         <v>22</v>
       </c>
       <c r="G51" s="8"/>
-      <c r="H51" s="75">
+      <c r="H51" s="67">
         <v>9320407764</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="34">
+      <c r="A52" s="33">
         <v>45174</v>
       </c>
-      <c r="B52" s="46">
+      <c r="B52" s="45">
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -3962,15 +3854,15 @@
       <c r="G52" s="8">
         <v>5419</v>
       </c>
-      <c r="H52" s="75">
+      <c r="H52" s="67">
         <v>9272113007</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="34">
+      <c r="A53" s="33">
         <v>45195</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="45">
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -3988,15 +3880,15 @@
       <c r="G53" s="8">
         <v>4042</v>
       </c>
-      <c r="H53" s="75">
+      <c r="H53" s="67">
         <v>8311800407</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="34">
+      <c r="A54" s="33">
         <v>45190</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="45">
         <v>55</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -4014,15 +3906,15 @@
       <c r="G54" s="8">
         <v>5435</v>
       </c>
-      <c r="H54" s="75">
+      <c r="H54" s="67">
         <v>8233112677</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="34">
+      <c r="A55" s="33">
         <v>45183</v>
       </c>
-      <c r="B55" s="46">
+      <c r="B55" s="45">
         <v>56</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -4040,15 +3932,15 @@
       <c r="G55" s="8">
         <v>5425</v>
       </c>
-      <c r="H55" s="75">
+      <c r="H55" s="67">
         <v>9260811920</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="34">
+      <c r="A56" s="33">
         <v>45216</v>
       </c>
-      <c r="B56" s="46">
+      <c r="B56" s="45">
         <v>57</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -4060,21 +3952,21 @@
       <c r="E56" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F56" s="48" t="s">
+      <c r="F56" s="47" t="s">
         <v>183</v>
       </c>
       <c r="G56" s="8">
         <v>4045</v>
       </c>
-      <c r="H56" s="75">
+      <c r="H56" s="67">
         <v>9291800720</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
+      <c r="A57" s="33">
         <v>45211</v>
       </c>
-      <c r="B57" s="46">
+      <c r="B57" s="45">
         <v>58</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -4092,15 +3984,15 @@
       <c r="G57" s="8">
         <v>4047</v>
       </c>
-      <c r="H57" s="75">
+      <c r="H57" s="67">
         <v>9300611916</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="34">
+      <c r="A58" s="33">
         <v>45203</v>
       </c>
-      <c r="B58" s="46">
+      <c r="B58" s="45">
         <v>59</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -4112,19 +4004,19 @@
       <c r="E58" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="47" t="s">
         <v>83</v>
       </c>
       <c r="G58" s="8"/>
-      <c r="H58" s="75">
+      <c r="H58" s="67">
         <v>9281205708</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="34">
+      <c r="A59" s="33">
         <v>45156</v>
       </c>
-      <c r="B59" s="46">
+      <c r="B59" s="45">
         <v>60</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -4142,187 +4034,187 @@
       <c r="G59" s="8">
         <v>5414</v>
       </c>
-      <c r="H59" s="75">
+      <c r="H59" s="67">
         <v>8261102723</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="34">
+      <c r="A60" s="33">
         <v>45218</v>
       </c>
-      <c r="B60" s="55">
+      <c r="B60" s="54">
         <v>61</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="53" t="s">
+      <c r="E60" s="37"/>
+      <c r="F60" s="52" t="s">
         <v>83</v>
       </c>
       <c r="G60" s="8">
         <v>5411</v>
       </c>
-      <c r="H60" s="75">
+      <c r="H60" s="67">
         <v>9290113384</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="34">
+      <c r="A61" s="33">
         <v>45222</v>
       </c>
-      <c r="B61" s="46">
+      <c r="B61" s="45">
         <v>62</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="E61" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="F61" s="54" t="s">
+      <c r="F61" s="53" t="s">
         <v>57</v>
       </c>
       <c r="G61" s="8">
         <v>4029</v>
       </c>
-      <c r="H61" s="75">
+      <c r="H61" s="67">
         <v>8271506948</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="34">
+      <c r="A62" s="33">
         <v>45222</v>
       </c>
-      <c r="B62" s="55">
+      <c r="B62" s="54">
         <v>63</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="F62" s="54" t="s">
+      <c r="F62" s="53" t="s">
         <v>57</v>
       </c>
       <c r="G62" s="8">
         <v>4033</v>
       </c>
-      <c r="H62" s="75" t="s">
-        <v>590</v>
+      <c r="H62" s="67" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="34">
+      <c r="A63" s="33">
         <v>45222</v>
       </c>
-      <c r="B63" s="46">
+      <c r="B63" s="45">
         <v>64</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="53" t="s">
         <v>204</v>
       </c>
       <c r="G63" s="8">
         <v>4002</v>
       </c>
-      <c r="H63" s="75">
+      <c r="H63" s="67">
         <v>9241804125</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="34">
+      <c r="A64" s="33">
         <v>45224</v>
       </c>
-      <c r="B64" s="55">
+      <c r="B64" s="54">
         <v>65</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="E64" s="40" t="s">
+      <c r="E64" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="F64" s="54" t="s">
+      <c r="F64" s="53" t="s">
         <v>208</v>
       </c>
       <c r="G64" s="8">
         <v>5444</v>
       </c>
-      <c r="H64" s="75">
+      <c r="H64" s="67">
         <v>9220312649</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="34">
+      <c r="A65" s="33">
         <v>45230</v>
       </c>
-      <c r="B65" s="55">
+      <c r="B65" s="54">
         <v>66</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="D65" s="39" t="s">
+      <c r="D65" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F65" s="53" t="s">
         <v>22</v>
       </c>
       <c r="G65" s="8">
         <v>2409</v>
       </c>
-      <c r="H65" s="75">
+      <c r="H65" s="67">
         <v>9230709390</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="34">
+      <c r="A66" s="33">
         <v>45230</v>
       </c>
-      <c r="B66" s="56">
+      <c r="B66" s="55">
         <v>67</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="D66" s="39" t="s">
+      <c r="D66" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="F66" s="54" t="s">
+      <c r="F66" s="53" t="s">
         <v>214</v>
       </c>
       <c r="G66" s="8">
         <v>5445</v>
       </c>
-      <c r="H66" s="75">
+      <c r="H66" s="67">
         <v>8260709136</v>
       </c>
     </row>
@@ -4422,30 +4314,30 @@
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="74" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="66" t="s">
-        <v>586</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>587</v>
+      <c r="G1" s="65" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4461,13 +4353,13 @@
       <c r="E2" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="63" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="70" t="s">
         <v>58</v>
       </c>
       <c r="I2" t="s">
@@ -4475,7 +4367,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -4493,7 +4385,7 @@
       <c r="G3" s="16">
         <v>2213</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="70">
         <v>8292013036</v>
       </c>
       <c r="S3" s="18" t="s">
@@ -4501,7 +4393,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="65">
+      <c r="B4" s="64">
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -4519,12 +4411,12 @@
       <c r="G4" s="16">
         <v>3073</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="70">
         <v>8260413071</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <v>4</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -4536,18 +4428,18 @@
       <c r="E5" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>230</v>
       </c>
       <c r="G5" s="16">
         <v>1492</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="70">
         <v>8291306809</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="65">
+      <c r="B6" s="64">
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -4559,21 +4451,21 @@
       <c r="E6" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>234</v>
       </c>
       <c r="G6" s="16">
         <v>4137</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="70">
         <v>7302706797</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
+      <c r="A7" s="33">
         <v>45176</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="64">
         <v>6</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -4585,18 +4477,18 @@
       <c r="E7" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="59" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="16">
         <v>5447</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="70">
         <v>7281302562</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>7</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -4608,18 +4500,18 @@
       <c r="E8" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="60" t="s">
         <v>241</v>
       </c>
       <c r="G8" s="16">
         <v>1868</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="70">
         <v>7241209148</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="65">
+      <c r="B9" s="64">
         <v>9</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -4628,14 +4520,14 @@
       <c r="D9" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="16"/>
-      <c r="H9" s="78"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="65">
+      <c r="B10" s="64">
         <v>10</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -4647,18 +4539,18 @@
       <c r="E10" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="16">
         <v>4118</v>
       </c>
-      <c r="H10" s="78" t="s">
-        <v>591</v>
+      <c r="H10" s="70" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="65">
+      <c r="B11" s="64">
         <v>11</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -4670,13 +4562,13 @@
       <c r="E11" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="16">
         <v>4143</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="70">
         <v>9271613720</v>
       </c>
     </row>
@@ -4693,13 +4585,13 @@
       <c r="E12" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H12" s="78">
+      <c r="H12" s="70">
         <v>6240604947</v>
       </c>
       <c r="I12" t="s">
@@ -4707,7 +4599,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="65">
+      <c r="B13" s="64">
         <v>13</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -4719,13 +4611,13 @@
       <c r="E13" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>208</v>
       </c>
       <c r="G13" s="16">
         <v>4091</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="70">
         <v>8241712313</v>
       </c>
     </row>
@@ -4742,18 +4634,18 @@
       <c r="E14" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="H14" s="78">
+      <c r="H14" s="70">
         <v>6250512270</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="65">
+      <c r="B15" s="64">
         <v>15</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -4765,18 +4657,18 @@
       <c r="E15" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="16">
         <v>4096</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H15" s="70">
         <v>8271412735</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="65">
+      <c r="B16" s="64">
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -4788,13 +4680,13 @@
       <c r="E16" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>265</v>
       </c>
       <c r="G16" s="16">
         <v>2240</v>
       </c>
-      <c r="H16" s="78">
+      <c r="H16" s="70">
         <v>7310910999</v>
       </c>
     </row>
@@ -4811,13 +4703,13 @@
       <c r="E17" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H17" s="78">
+      <c r="H17" s="70">
         <v>7222308325</v>
       </c>
     </row>
@@ -4834,18 +4726,18 @@
       <c r="E18" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="70">
         <v>7222308349</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="65">
+      <c r="B19" s="64">
         <v>19</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -4857,18 +4749,18 @@
       <c r="E19" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>57</v>
       </c>
       <c r="G19" s="16">
         <v>1346</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="70">
         <v>8282713881</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="65">
+      <c r="B20" s="64">
         <v>20</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -4880,18 +4772,18 @@
       <c r="E20" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="60" t="s">
         <v>83</v>
       </c>
       <c r="G20" s="16">
         <v>4138</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="70">
         <v>8232811812</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="65">
+      <c r="B21" s="64">
         <v>21</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -4903,18 +4795,18 @@
       <c r="E21" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="30" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="16">
         <v>4132</v>
       </c>
-      <c r="H21" s="78">
+      <c r="H21" s="70">
         <v>7272601867</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="65">
+      <c r="B22" s="64">
         <v>22</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -4926,18 +4818,18 @@
       <c r="E22" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="29" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="16">
         <v>1895</v>
       </c>
-      <c r="H22" s="78">
+      <c r="H22" s="70">
         <v>8250108002</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="65">
+      <c r="B23" s="64">
         <v>23</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -4949,16 +4841,16 @@
       <c r="E23" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="30" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="16">
         <v>1723</v>
       </c>
-      <c r="H23" s="78"/>
+      <c r="H23" s="70"/>
     </row>
     <row r="24" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="65">
+      <c r="B24" s="64">
         <v>24</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -4970,18 +4862,18 @@
       <c r="E24" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="29" t="s">
         <v>208</v>
       </c>
       <c r="G24" s="16">
         <v>1892</v>
       </c>
-      <c r="H24" s="78">
+      <c r="H24" s="70">
         <v>7272807140</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="65">
+      <c r="B25" s="64">
         <v>25</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -4993,13 +4885,13 @@
       <c r="E25" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="56" t="s">
         <v>287</v>
       </c>
       <c r="G25" s="16">
         <v>2626</v>
       </c>
-      <c r="H25" s="78">
+      <c r="H25" s="70">
         <v>8260607786</v>
       </c>
     </row>
@@ -5016,14 +4908,14 @@
       <c r="E26" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="57" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="19"/>
-      <c r="H26" s="79"/>
+      <c r="H26" s="71"/>
     </row>
     <row r="27" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="65">
+      <c r="B27" s="64">
         <v>27</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -5035,13 +4927,13 @@
       <c r="E27" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="16">
         <v>1724</v>
       </c>
-      <c r="H27" s="78">
+      <c r="H27" s="70">
         <v>8210411579</v>
       </c>
     </row>
@@ -5058,13 +4950,13 @@
       <c r="E28" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="29" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H28" s="78">
+      <c r="H28" s="70">
         <v>6303005393</v>
       </c>
       <c r="I28" t="s">
@@ -5072,7 +4964,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="65">
+      <c r="B29" s="64">
         <v>29</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -5084,13 +4976,13 @@
       <c r="E29" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="29" t="s">
         <v>57</v>
       </c>
       <c r="G29" s="16">
         <v>4094</v>
       </c>
-      <c r="H29" s="78">
+      <c r="H29" s="70">
         <v>7292007429</v>
       </c>
     </row>
@@ -5107,12 +4999,12 @@
       <c r="E30" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="29" t="s">
         <v>300</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="78" t="s">
-        <v>592</v>
+      <c r="H30" s="70" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15" x14ac:dyDescent="0.2">
@@ -5128,13 +5020,13 @@
       <c r="E31" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="29" t="s">
         <v>304</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H31" s="78">
+      <c r="H31" s="70">
         <v>7271309223</v>
       </c>
       <c r="I31" t="s">
@@ -5154,13 +5046,13 @@
       <c r="E32" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="29" t="s">
         <v>57</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="H32" s="78">
+      <c r="H32" s="70">
         <v>7300306869</v>
       </c>
       <c r="I32" t="s">
@@ -5168,7 +5060,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="65">
+      <c r="B33" s="64">
         <v>33</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -5180,21 +5072,21 @@
       <c r="E33" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="58" t="s">
         <v>100</v>
       </c>
       <c r="G33" s="16">
         <v>1729</v>
       </c>
-      <c r="H33" s="78">
+      <c r="H33" s="70">
         <v>7301910911</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
+      <c r="A34" s="33">
         <v>45218</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="64">
         <v>34</v>
       </c>
       <c r="C34" s="19" t="s">
@@ -5206,16 +5098,16 @@
       <c r="E34" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="80">
+      <c r="G34" s="72">
         <v>5457</v>
       </c>
-      <c r="H34" s="75"/>
+      <c r="H34" s="67"/>
     </row>
     <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="65">
+      <c r="B35" s="64">
         <v>35</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -5224,24 +5116,24 @@
       <c r="D35" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="29" t="s">
         <v>316</v>
       </c>
       <c r="G35" s="16">
         <v>1100</v>
       </c>
-      <c r="H35" s="78">
+      <c r="H35" s="70">
         <v>8283001541</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>45188</v>
       </c>
-      <c r="B36" s="65">
+      <c r="B36" s="64">
         <v>36</v>
       </c>
       <c r="C36" s="19" t="s">
@@ -5250,16 +5142,16 @@
       <c r="D36" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="59" t="s">
         <v>83</v>
       </c>
       <c r="G36" s="16">
         <v>5449</v>
       </c>
-      <c r="H36" s="78">
+      <c r="H36" s="70">
         <v>8221100116</v>
       </c>
     </row>
@@ -5273,19 +5165,19 @@
       <c r="D37" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="58" t="s">
         <v>83</v>
       </c>
       <c r="G37" s="16"/>
-      <c r="H37" s="78">
+      <c r="H37" s="70">
         <v>8261409905</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="65">
+      <c r="B38" s="64">
         <v>38</v>
       </c>
       <c r="C38" s="16" t="s">
@@ -5297,18 +5189,18 @@
       <c r="E38" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="16">
         <v>2615</v>
       </c>
-      <c r="H38" s="78">
+      <c r="H38" s="70">
         <v>8212405899</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="65">
+      <c r="B39" s="64">
         <v>39</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -5320,13 +5212,13 @@
       <c r="E39" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="16">
         <v>1732</v>
       </c>
-      <c r="H39" s="78">
+      <c r="H39" s="70">
         <v>8221809572</v>
       </c>
     </row>
@@ -5343,11 +5235,11 @@
       <c r="E40" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="29" t="s">
         <v>331</v>
       </c>
       <c r="G40" s="16"/>
-      <c r="H40" s="78">
+      <c r="H40" s="70">
         <v>8300805266</v>
       </c>
     </row>
@@ -5364,11 +5256,11 @@
       <c r="E41" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="F41" s="77" t="s">
+      <c r="F41" s="69" t="s">
         <v>241</v>
       </c>
       <c r="G41" s="16"/>
-      <c r="H41" s="78"/>
+      <c r="H41" s="70"/>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="4">
@@ -5383,11 +5275,11 @@
       <c r="E42" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="29" t="s">
         <v>57</v>
       </c>
       <c r="G42" s="16"/>
-      <c r="H42" s="78">
+      <c r="H42" s="70">
         <v>7233002114</v>
       </c>
       <c r="I42" t="s">
@@ -5395,7 +5287,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B43" s="65">
+      <c r="B43" s="64">
         <v>43</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -5407,18 +5299,18 @@
       <c r="E43" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="60" t="s">
         <v>341</v>
       </c>
       <c r="G43" s="16">
         <v>1105</v>
       </c>
-      <c r="H43" s="78">
+      <c r="H43" s="70">
         <v>8322608692</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B44" s="65">
+      <c r="B44" s="64">
         <v>44</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -5430,13 +5322,13 @@
       <c r="E44" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="30" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="16">
         <v>2706</v>
       </c>
-      <c r="H44" s="78">
+      <c r="H44" s="70">
         <v>8212904688</v>
       </c>
     </row>
@@ -5453,12 +5345,12 @@
       <c r="E45" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="30" t="s">
         <v>226</v>
       </c>
       <c r="G45" s="16"/>
-      <c r="H45" s="78" t="s">
-        <v>593</v>
+      <c r="H45" s="70" t="s">
+        <v>591</v>
       </c>
       <c r="I45" t="s">
         <v>58</v>
@@ -5477,11 +5369,11 @@
       <c r="E46" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="30" t="s">
         <v>349</v>
       </c>
       <c r="G46" s="16"/>
-      <c r="H46" s="78">
+      <c r="H46" s="70">
         <v>7321508385</v>
       </c>
     </row>
@@ -5498,11 +5390,11 @@
       <c r="E47" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="29" t="s">
         <v>316</v>
       </c>
       <c r="G47" s="16"/>
-      <c r="H47" s="78">
+      <c r="H47" s="70">
         <v>7301205563</v>
       </c>
     </row>
@@ -5519,11 +5411,11 @@
       <c r="E48" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="29" t="s">
         <v>316</v>
       </c>
       <c r="G48" s="16"/>
-      <c r="H48" s="78">
+      <c r="H48" s="70">
         <v>7280202528</v>
       </c>
       <c r="I48" t="s">
@@ -5531,7 +5423,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="65">
+      <c r="B49" s="64">
         <v>49</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -5543,19 +5435,19 @@
       <c r="E49" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="29" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="16">
         <v>3881</v>
       </c>
-      <c r="H49" s="78"/>
+      <c r="H49" s="70"/>
     </row>
     <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="34">
+      <c r="A50" s="33">
         <v>45218</v>
       </c>
-      <c r="B50" s="65">
+      <c r="B50" s="64">
         <v>50</v>
       </c>
       <c r="C50" s="19" t="s">
@@ -5567,18 +5459,18 @@
       <c r="E50" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="57" t="s">
         <v>34</v>
       </c>
       <c r="G50" s="16">
         <v>5458</v>
       </c>
-      <c r="H50" s="78">
+      <c r="H50" s="70">
         <v>8211604459</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B51" s="65">
+      <c r="B51" s="64">
         <v>51</v>
       </c>
       <c r="C51" s="16" t="s">
@@ -5590,18 +5482,18 @@
       <c r="E51" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G51" s="16">
         <v>1819</v>
       </c>
-      <c r="H51" s="78">
+      <c r="H51" s="70">
         <v>7321111833</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B52" s="65">
+      <c r="B52" s="64">
         <v>52</v>
       </c>
       <c r="C52" s="16" t="s">
@@ -5613,18 +5505,18 @@
       <c r="E52" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="29" t="s">
         <v>221</v>
       </c>
       <c r="G52" s="16">
         <v>4141</v>
       </c>
-      <c r="H52" s="78">
+      <c r="H52" s="70">
         <v>8291916019</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B53" s="65">
+      <c r="B53" s="64">
         <v>53</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -5636,21 +5528,21 @@
       <c r="E53" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="F53" s="61" t="s">
+      <c r="F53" s="60" t="s">
         <v>83</v>
       </c>
       <c r="G53" s="16">
         <v>1572</v>
       </c>
-      <c r="H53" s="78">
+      <c r="H53" s="70">
         <v>8251205715</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="34">
+      <c r="A54" s="33">
         <v>45145</v>
       </c>
-      <c r="B54" s="65">
+      <c r="B54" s="64">
         <v>54</v>
       </c>
       <c r="C54" s="19" t="s">
@@ -5662,16 +5554,16 @@
       <c r="E54" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="F54" s="58"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="16">
         <v>5413</v>
       </c>
-      <c r="H54" s="78">
+      <c r="H54" s="70">
         <v>7321500202</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B55" s="65">
+      <c r="B55" s="64">
         <v>55</v>
       </c>
       <c r="C55" s="16" t="s">
@@ -5683,13 +5575,13 @@
       <c r="E55" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="F55" s="61" t="s">
+      <c r="F55" s="60" t="s">
         <v>83</v>
       </c>
       <c r="G55" s="16">
         <v>4093</v>
       </c>
-      <c r="H55" s="78">
+      <c r="H55" s="70">
         <v>8240309808</v>
       </c>
     </row>
@@ -5706,11 +5598,11 @@
       <c r="E56" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F56" s="29" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="16"/>
-      <c r="H56" s="78">
+      <c r="H56" s="70">
         <v>6291808543</v>
       </c>
     </row>
@@ -5727,13 +5619,13 @@
       <c r="E57" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="29" t="s">
         <v>93</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H57" s="78">
+      <c r="H57" s="70">
         <v>6283109535</v>
       </c>
       <c r="I57" t="s">
@@ -5753,21 +5645,21 @@
       <c r="E58" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="F58" s="61" t="s">
+      <c r="F58" s="60" t="s">
         <v>83</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H58" s="78" t="s">
-        <v>594</v>
+      <c r="H58" s="70" t="s">
+        <v>592</v>
       </c>
       <c r="I58" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="65">
+      <c r="B59" s="64">
         <v>59</v>
       </c>
       <c r="C59" s="16" t="s">
@@ -5779,13 +5671,13 @@
       <c r="E59" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="29" t="s">
         <v>208</v>
       </c>
       <c r="G59" s="16">
         <v>2535</v>
       </c>
-      <c r="H59" s="78">
+      <c r="H59" s="70">
         <v>8230808474</v>
       </c>
     </row>
@@ -5802,14 +5694,14 @@
       <c r="E60" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H60" s="78" t="s">
-        <v>595</v>
+      <c r="H60" s="70" t="s">
+        <v>593</v>
       </c>
       <c r="I60" t="s">
         <v>385</v>
@@ -5819,7 +5711,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="65">
+      <c r="B61" s="64">
         <v>61</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -5831,13 +5723,13 @@
       <c r="E61" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F61" s="29" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="16">
         <v>1861</v>
       </c>
-      <c r="H61" s="78">
+      <c r="H61" s="70">
         <v>7252300580</v>
       </c>
     </row>
@@ -5854,19 +5746,19 @@
       <c r="E62" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="F62" s="61" t="s">
+      <c r="F62" s="60" t="s">
         <v>83</v>
       </c>
       <c r="G62" s="16"/>
-      <c r="H62" s="78">
+      <c r="H62" s="70">
         <v>8232707191</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="34">
+      <c r="A63" s="33">
         <v>45184</v>
       </c>
-      <c r="B63" s="65">
+      <c r="B63" s="64">
         <v>63</v>
       </c>
       <c r="C63" s="19" t="s">
@@ -5878,18 +5770,18 @@
       <c r="E63" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="F63" s="58" t="s">
+      <c r="F63" s="57" t="s">
         <v>57</v>
       </c>
       <c r="G63" s="16">
         <v>5451</v>
       </c>
-      <c r="H63" s="78">
+      <c r="H63" s="70">
         <v>8281106828</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="65">
+      <c r="B64" s="64">
         <v>64</v>
       </c>
       <c r="C64" s="16" t="s">
@@ -5901,21 +5793,21 @@
       <c r="E64" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="29" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="16">
         <v>4117</v>
       </c>
-      <c r="H64" s="78" t="s">
-        <v>596</v>
+      <c r="H64" s="70" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="34">
+      <c r="A65" s="33">
         <v>45124</v>
       </c>
-      <c r="B65" s="65">
+      <c r="B65" s="64">
         <v>65</v>
       </c>
       <c r="C65" s="19" t="s">
@@ -5927,19 +5819,19 @@
       <c r="E65" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="F65" s="58"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="16">
         <v>5460</v>
       </c>
-      <c r="H65" s="78">
+      <c r="H65" s="70">
         <v>7311601742</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="34">
+      <c r="A66" s="33">
         <v>45188</v>
       </c>
-      <c r="B66" s="65">
+      <c r="B66" s="64">
         <v>66</v>
       </c>
       <c r="C66" s="19" t="s">
@@ -5951,13 +5843,13 @@
       <c r="E66" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="F66" s="58" t="s">
+      <c r="F66" s="57" t="s">
         <v>401</v>
       </c>
       <c r="G66" s="16">
         <v>5450</v>
       </c>
-      <c r="H66" s="78">
+      <c r="H66" s="70">
         <v>7260406234</v>
       </c>
     </row>
@@ -5974,13 +5866,13 @@
       <c r="E67" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="F67" s="62" t="s">
+      <c r="F67" s="61" t="s">
         <v>22</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H67" s="78">
+      <c r="H67" s="70">
         <v>7262305760</v>
       </c>
       <c r="I67" t="s">
@@ -5988,10 +5880,10 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="34">
+      <c r="A68" s="33">
         <v>45190</v>
       </c>
-      <c r="B68" s="65">
+      <c r="B68" s="64">
         <v>68</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -6003,13 +5895,13 @@
       <c r="E68" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="F68" s="58" t="s">
+      <c r="F68" s="57" t="s">
         <v>93</v>
       </c>
       <c r="G68" s="16">
         <v>5452</v>
       </c>
-      <c r="H68" s="78">
+      <c r="H68" s="70">
         <v>8253006161</v>
       </c>
     </row>
@@ -6026,13 +5918,13 @@
       <c r="E69" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="F69" s="63" t="s">
+      <c r="F69" s="62" t="s">
         <v>410</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H69" s="78">
+      <c r="H69" s="70">
         <v>7221607234</v>
       </c>
       <c r="I69" t="s">
@@ -6073,7 +5965,7 @@
   <sortState ref="C3:G69">
     <sortCondition ref="C2"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="mailto:bujkobeata17@gmail.com" xr:uid="{414DF7C2-AB4C-4DCC-ABD5-ECD9DE50E3DD}"/>
     <hyperlink ref="E21" r:id="rId2" display="mailto:agawiecz@tlen.pl" xr:uid="{B5F9DD8E-2E2D-4643-A76F-3CE5C8F8F7F9}"/>
@@ -6104,8 +5996,8 @@
   </sheetPr>
   <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6118,23 +6010,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83" t="s">
-        <v>587</v>
+      <c r="G1" s="75" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.2">
@@ -6343,7 +6235,7 @@
         <v>214</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -6511,7 +6403,7 @@
         <v>460</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="82"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
@@ -6680,7 +6572,7 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="46">
+      <c r="B28" s="45">
         <v>27</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -6996,10 +6888,10 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7009,556 +6901,607 @@
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="73" t="s">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-    </row>
-    <row r="2" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73" t="s">
+      <c r="D2" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="71" t="s">
+      <c r="E2" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="72">
+        <v>6291200543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="C3" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="72"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="C4" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="72">
+        <v>4271406172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="68"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
       <c r="C5" s="16" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>518</v>
+        <v>521</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>522</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="G5" s="72"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>525</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="G6" s="72"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>522</v>
+        <v>28</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="72">
+        <v>5230800314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="33">
+        <v>45215</v>
+      </c>
+      <c r="B8" s="45">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>529</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>524</v>
+        <v>530</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>531</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G8" s="72"/>
+      <c r="H8">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>527</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="G9" s="72">
+        <v>6282805166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="F10" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="G10" s="72">
+        <v>6240511643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
-        <v>45215</v>
-      </c>
-      <c r="B11" s="46">
-        <v>7</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11">
-        <v>5443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G11" s="72">
+        <v>7230712286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="72"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="72"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="72">
+        <v>4112700000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="72"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" s="72">
+        <v>5221608866</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>9</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <v>10</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <v>11</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <v>12</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
-        <v>13</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G17" s="72">
+        <v>6221711217</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>552</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="72">
+        <v>5281109707</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>555</v>
+        <v>559</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>561</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="G19" s="72">
+        <v>7231314289</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>557</v>
+        <v>515</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>563</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G20" s="72" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>560</v>
+        <v>557</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>565</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+      <c r="G21" s="72">
+        <v>6291703800</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <v>18</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>561</v>
+        <v>21</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>567</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>563</v>
+        <v>568</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>569</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="G22" s="72"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>19</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>565</v>
+        <v>22</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>572</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="G23" s="72">
+        <v>6272510667</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>20</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>567</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>575</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="G24" s="72"/>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>577</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="72"/>
+    </row>
+    <row r="26" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="E26" s="23" t="s">
+      <c r="G26" s="72">
+        <v>6242109648</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="72">
+        <v>6242109785</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
-        <v>23</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="2">
-        <v>24</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="F28" s="33" t="s">
+      <c r="E28" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="F28" s="31" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="G28" s="72">
+        <v>5290600255</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
-        <v>26</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
-        <v>27</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="E31" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
-        <v>28</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="F32" s="32" t="s">
+      <c r="F29" s="31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C35" s="17" t="s">
+      <c r="G29" s="72">
+        <v>52708063352</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C32" s="17" t="s">
         <v>411</v>
       </c>
     </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="C5:F32">
-    <sortCondition ref="C5"/>
+  <sortState ref="C2:F29">
+    <sortCondition ref="C2"/>
   </sortState>
-  <mergeCells count="7">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B2:F2"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E28" r:id="rId1" xr:uid="{432DE430-39A8-482F-8AB5-AAD022C41DE7}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{D6144025-03BB-4EE0-BD99-6C9C7496D591}"/>
-    <hyperlink ref="E22" r:id="rId3" xr:uid="{C05DA6F2-833C-4719-8276-9CECCA42C655}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{2F274713-CF3A-4EF4-9CD5-0C786D9F7792}"/>
+    <hyperlink ref="E25" r:id="rId1" xr:uid="{432DE430-39A8-482F-8AB5-AAD022C41DE7}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{D6144025-03BB-4EE0-BD99-6C9C7496D591}"/>
+    <hyperlink ref="E19" r:id="rId3" xr:uid="{C05DA6F2-833C-4719-8276-9CECCA42C655}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{2F274713-CF3A-4EF4-9CD5-0C786D9F7792}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId5"/>
@@ -7566,6 +7509,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBAE65BCC4F2824FBA63288EFD5A95F9" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="ea1a42e4cb7a2af716b347dedc722b55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b944729-8d3f-45a8-97ab-dfd482954bc2" xmlns:ns3="ee08f7b8-1798-4b4d-b96c-5f5a553036da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0a7a49e75f93574281701094d45048f" ns2:_="" ns3:_="">
     <xsd:import namespace="9b944729-8d3f-45a8-97ab-dfd482954bc2"/>
@@ -7800,15 +7752,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7838,6 +7781,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F2D134-2EBE-49E1-A97D-A9C2DA0F811F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D46165-84C9-48A1-840E-B8507151EBAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7856,14 +7807,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F2D134-2EBE-49E1-A97D-A9C2DA0F811F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2D0C3E-1175-45D7-A429-4CA7B19B12CE}">
   <ds:schemaRefs>
